--- a/biology/Zoologie/Gongylidioides_insulanus/Gongylidioides_insulanus.xlsx
+++ b/biology/Zoologie/Gongylidioides_insulanus/Gongylidioides_insulanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gongylidioides insulanus est une espèce d'araignées aranéomorphes de la famille des Linyphiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gongylidioides insulanus est une espèce d'araignées aranéomorphes de la famille des Linyphiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Corée du Sud et en Chine au Jilin[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Corée du Sud et en Chine au Jilin,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 3,02 mm[3].
-Le mâle décrit par Seo en 2011 mesure 2,15 mm[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 3,02 mm.
+Le mâle décrit par Seo en 2011 mesure 2,15 mm.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Oedothorax insulanus par Paik en 1980. Elle est placée dans le genre Gongylidioides par Lin, Lopardo et Uhl en 2022[2].
-Gongylidioides kouqianensis[5] a été placée en synonymie par Lin, Lopardo et Uhl en 2022[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Oedothorax insulanus par Paik en 1980. Elle est placée dans le genre Gongylidioides par Lin, Lopardo et Uhl en 2022.
+Gongylidioides kouqianensis a été placée en synonymie par Lin, Lopardo et Uhl en 2022.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Paik, 1980 : « The spider fauna of Dae Heuksan-do Isl., So Heuksan-do Isl. and Hong-do Isl., Jeunlanam-do, Korea. » Kyungpook Educational Forum Kyungpook National University, vol. 22, p. 153-173.</t>
         </is>
